--- a/보고/보고양식(민병욱).xlsx
+++ b/보고/보고양식(민병욱).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinDY\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FB47B6-1AA1-46BA-987F-AAB2E8EEA97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD7342B-09CB-4C9C-A498-0782DC339CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,26 +419,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,6 +441,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -893,11 +893,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="0"/>
@@ -956,7 +956,7 @@
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -995,8 +995,8 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="10" t="s">
         <v>45</v>
       </c>
@@ -1033,8 +1033,8 @@
       </c>
     </row>
     <row r="8" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="10" t="s">
         <v>46</v>
       </c>
@@ -1071,8 +1071,8 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="10"/>
       <c r="E9" s="7"/>
       <c r="F9" s="9">
@@ -1107,8 +1107,8 @@
       </c>
     </row>
     <row r="10" spans="2:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6">
@@ -1153,10 +1153,10 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1195,8 +1195,8 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1233,8 +1233,8 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="10" t="s">
         <v>22</v>
       </c>
@@ -1271,8 +1271,8 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1309,8 +1309,8 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="10" t="s">
         <v>24</v>
       </c>
@@ -1347,8 +1347,8 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="10" t="s">
         <v>25</v>
       </c>
@@ -1385,8 +1385,8 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="10" t="s">
         <v>26</v>
       </c>
@@ -1423,8 +1423,8 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6">
@@ -1472,7 +1472,7 @@
       <c r="B19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1511,8 +1511,8 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="7" t="s">
         <v>3</v>
       </c>
@@ -1549,8 +1549,8 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="7" t="s">
         <v>6</v>
       </c>
@@ -1587,8 +1587,8 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="17"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="7" t="s">
         <v>8</v>
       </c>
@@ -1625,8 +1625,8 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="7" t="s">
         <v>9</v>
       </c>
@@ -1663,8 +1663,8 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="15"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="7" t="s">
         <v>10</v>
       </c>
@@ -1701,8 +1701,8 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="17"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="7" t="s">
         <v>27</v>
       </c>
@@ -1739,8 +1739,8 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="7" t="s">
         <v>28</v>
       </c>
@@ -1777,8 +1777,8 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="6">
@@ -1826,7 +1826,7 @@
       <c r="B28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1849,10 +1849,10 @@
         <v>0.4</v>
       </c>
       <c r="K28" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L28" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M28" s="9">
         <v>0</v>
@@ -1865,8 +1865,8 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="6">
@@ -1891,11 +1891,11 @@
       </c>
       <c r="K29" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M29" s="6">
         <f t="shared" si="4"/>
@@ -1914,7 +1914,7 @@
       <c r="B30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1953,8 +1953,8 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="15"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="7" t="s">
         <v>31</v>
       </c>
@@ -1991,8 +1991,8 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="7" t="s">
         <v>32</v>
       </c>
@@ -2029,8 +2029,8 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="7" t="s">
         <v>33</v>
       </c>
@@ -2067,8 +2067,8 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="17"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="7" t="s">
         <v>34</v>
       </c>
@@ -2105,8 +2105,8 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="15"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="7" t="s">
         <v>35</v>
       </c>
@@ -2143,8 +2143,8 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="15"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="7" t="s">
         <v>36</v>
       </c>
@@ -2181,8 +2181,8 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="15"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="7" t="s">
         <v>37</v>
       </c>
@@ -2219,8 +2219,8 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="15"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="7" t="s">
         <v>38</v>
       </c>
@@ -2257,8 +2257,8 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="15"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="7" t="s">
         <v>39</v>
       </c>
@@ -2295,8 +2295,8 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="15"/>
-      <c r="C40" s="17"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="7" t="s">
         <v>40</v>
       </c>
@@ -2333,8 +2333,8 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6">
@@ -2382,7 +2382,7 @@
       <c r="B42" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="7" t="s">
@@ -2421,8 +2421,8 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
-      <c r="C43" s="17"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="7" t="s">
         <v>42</v>
       </c>
@@ -2459,8 +2459,8 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="12"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="7"/>
       <c r="F44" s="6">
         <f t="shared" ref="F44:O44" si="6">AVERAGE(F42:F43)</f>
@@ -2533,18 +2533,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B41"/>
+    <mergeCell ref="C30:C41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="B19:B27"/>
     <mergeCell ref="C19:C27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B41"/>
-    <mergeCell ref="C30:C41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B19:C20 E19:E20">

--- a/보고/보고양식(민병욱).xlsx
+++ b/보고/보고양식(민병욱).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinDY\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD7342B-09CB-4C9C-A498-0782DC339CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFFC3EB-F2AC-4FC5-84D3-838A17EC49ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -901,15 +901,15 @@
       </c>
       <c r="M3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="N3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="O3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15833333333333333</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1855,13 +1855,13 @@
         <v>0.7</v>
       </c>
       <c r="M28" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N28" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O28" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
@@ -1899,15 +1899,15 @@
       </c>
       <c r="M29" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N29" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">

--- a/보고/보고양식(민병욱).xlsx
+++ b/보고/보고양식(민병욱).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinDY\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFFC3EB-F2AC-4FC5-84D3-838A17EC49ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AF9C36-D771-4205-AECB-65700DB4906E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,20 +419,26 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,12 +447,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -909,7 +909,7 @@
       </c>
       <c r="O3" s="6">
         <f t="shared" si="0"/>
-        <v>0.15833333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -956,7 +956,7 @@
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -995,8 +995,8 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="10" t="s">
         <v>45</v>
       </c>
@@ -1033,8 +1033,8 @@
       </c>
     </row>
     <row r="8" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="10" t="s">
         <v>46</v>
       </c>
@@ -1071,8 +1071,8 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="10"/>
       <c r="E9" s="7"/>
       <c r="F9" s="9">
@@ -1107,8 +1107,8 @@
       </c>
     </row>
     <row r="10" spans="2:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6">
@@ -1153,10 +1153,10 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1195,8 +1195,8 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1233,8 +1233,8 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="10" t="s">
         <v>22</v>
       </c>
@@ -1271,8 +1271,8 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="18"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1309,8 +1309,8 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
-      <c r="C15" s="21"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="10" t="s">
         <v>24</v>
       </c>
@@ -1347,8 +1347,8 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="18"/>
-      <c r="C16" s="21"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="10" t="s">
         <v>25</v>
       </c>
@@ -1385,8 +1385,8 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="21"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="10" t="s">
         <v>26</v>
       </c>
@@ -1423,8 +1423,8 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6">
@@ -1472,7 +1472,7 @@
       <c r="B19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1511,8 +1511,8 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="7" t="s">
         <v>3</v>
       </c>
@@ -1549,8 +1549,8 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="7" t="s">
         <v>6</v>
       </c>
@@ -1587,8 +1587,8 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="7" t="s">
         <v>8</v>
       </c>
@@ -1625,8 +1625,8 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="7" t="s">
         <v>9</v>
       </c>
@@ -1663,8 +1663,8 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="21"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="7" t="s">
         <v>10</v>
       </c>
@@ -1701,8 +1701,8 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-      <c r="C25" s="21"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="7" t="s">
         <v>27</v>
       </c>
@@ -1739,8 +1739,8 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="21"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="7" t="s">
         <v>28</v>
       </c>
@@ -1777,8 +1777,8 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="6">
@@ -1826,7 +1826,7 @@
       <c r="B28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1861,12 +1861,12 @@
         <v>0.9</v>
       </c>
       <c r="O28" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="6">
@@ -1907,14 +1907,14 @@
       </c>
       <c r="O29" s="6">
         <f t="shared" si="4"/>
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1953,8 +1953,8 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="7" t="s">
         <v>31</v>
       </c>
@@ -1991,8 +1991,8 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="21"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="7" t="s">
         <v>32</v>
       </c>
@@ -2029,8 +2029,8 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="7" t="s">
         <v>33</v>
       </c>
@@ -2067,8 +2067,8 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-      <c r="C34" s="21"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7" t="s">
         <v>34</v>
       </c>
@@ -2105,8 +2105,8 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-      <c r="C35" s="21"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="7" t="s">
         <v>35</v>
       </c>
@@ -2143,8 +2143,8 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-      <c r="C36" s="21"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="7" t="s">
         <v>36</v>
       </c>
@@ -2181,8 +2181,8 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
-      <c r="C37" s="21"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="7" t="s">
         <v>37</v>
       </c>
@@ -2219,8 +2219,8 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
-      <c r="C38" s="21"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="7" t="s">
         <v>38</v>
       </c>
@@ -2257,8 +2257,8 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="21"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="7" t="s">
         <v>39</v>
       </c>
@@ -2295,8 +2295,8 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
-      <c r="C40" s="21"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="7" t="s">
         <v>40</v>
       </c>
@@ -2333,8 +2333,8 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6">
@@ -2382,7 +2382,7 @@
       <c r="B42" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="7" t="s">
@@ -2421,8 +2421,8 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
-      <c r="C43" s="21"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="7" t="s">
         <v>42</v>
       </c>
@@ -2459,8 +2459,8 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="7"/>
       <c r="F44" s="6">
         <f t="shared" ref="F44:O44" si="6">AVERAGE(F42:F43)</f>
@@ -2533,18 +2533,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="B30:B41"/>
     <mergeCell ref="C30:C41"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B19:C20 E19:E20">
